--- a/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao.xlsx
+++ b/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>O veículo existe e operou na linha indicada pelo recurso</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Viagem inválida - sobreposição de viagem</t>
+          <t>Viagem duplicada na amostra</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Viagem inválida - sobreposição de viagem</t>
+          <t>Viagem duplicada na amostra</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Viagem inválida - a linha é circular</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tem GPS válido na tabela gps_sppo, mas não na tabela registros_status_viagem</t>
+          <t>Viagem circular inválida - sem sinal inicial/final dentro do raio de 500m</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tem GPS válido na tabela gps_sppo, mas não na tabela registros_status_viagem</t>
+          <t>Viagem circular inválida - sem sinal inicial/final dentro do raio de 500m</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Viagem inválida - sem sinal inicial/final dentro do raio de 500m</t>
+          <t>Viagem circular inválida - sem sinal inicial/final dentro do raio de 500m</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tem GPS válido na tabela gps_sppo, mas não na tabela registros_status_viagem</t>
+          <t>Viagem circular inválida - sem sinal inicial/final dentro do raio de 500m</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Viagem inválida - sem sinal inicial/final dentro do raio de 500m</t>
+          <t>Viagem circular inválida - sem sinal inicial/final dentro do raio de 500m</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Tem GPS válido na tabela gps_sppo, mas não na tabela registros_status_viagem</t>
+          <t>Viagem circular inválida - sem sinal inicial/final dentro do raio de 500m</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Viagem inválida - a linha é circular</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Viagem inválida - sem sinal inicial/final dentro do raio de 500m</t>
+          <t>Viagem circular identificada e já paga</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
